--- a/database/industries/nasaji/netrin/cost/quarterly.xlsx
+++ b/database/industries/nasaji/netrin/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\nasaji\netrin\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48354FCB-4757-4689-B0A9-7E7F689A96C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4265CB4-4AD5-46DF-A7EE-34DD38428D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -137,6 +152,9 @@
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -695,16 +713,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I136"/>
+  <dimension ref="B1:N136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +731,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,8 +748,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -737,8 +765,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -747,8 +780,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -759,8 +797,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,8 +814,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +829,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -803,8 +856,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -813,98 +881,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>184332</v>
+      </c>
+      <c r="F10" s="9">
+        <v>155499</v>
+      </c>
+      <c r="G10" s="9">
+        <v>106236</v>
+      </c>
+      <c r="H10" s="9">
+        <v>92304</v>
+      </c>
+      <c r="I10" s="9">
+        <v>157047</v>
+      </c>
+      <c r="J10" s="9">
         <v>249228</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>375926</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>347398</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>489725</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>508272</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>14061</v>
+      </c>
+      <c r="F11" s="11">
+        <v>14868</v>
+      </c>
+      <c r="G11" s="11">
+        <v>21155</v>
+      </c>
+      <c r="H11" s="11">
+        <v>23866</v>
+      </c>
+      <c r="I11" s="11">
+        <v>33870</v>
+      </c>
+      <c r="J11" s="11">
         <v>32002</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>44627</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>61002</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>79261</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>67983</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>31805</v>
+      </c>
+      <c r="F12" s="9">
+        <v>32867</v>
+      </c>
+      <c r="G12" s="9">
+        <v>52421</v>
+      </c>
+      <c r="H12" s="9">
+        <v>30757</v>
+      </c>
+      <c r="I12" s="9">
+        <v>49391</v>
+      </c>
+      <c r="J12" s="9">
         <v>61760</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>46981</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>78900</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>76431</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>109716</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>230198</v>
+      </c>
+      <c r="F13" s="13">
+        <v>203234</v>
+      </c>
+      <c r="G13" s="13">
+        <v>179812</v>
+      </c>
+      <c r="H13" s="13">
+        <v>146927</v>
+      </c>
+      <c r="I13" s="13">
+        <v>240308</v>
+      </c>
+      <c r="J13" s="13">
         <v>342990</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>467534</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>487300</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>645417</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>685971</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -923,62 +1056,107 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>230198</v>
+      </c>
+      <c r="F15" s="13">
+        <v>203234</v>
+      </c>
+      <c r="G15" s="13">
+        <v>179812</v>
+      </c>
+      <c r="H15" s="13">
+        <v>146927</v>
+      </c>
+      <c r="I15" s="13">
+        <v>240308</v>
+      </c>
+      <c r="J15" s="13">
         <v>342990</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>467534</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>487300</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>645417</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>685971</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-1020</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-1126</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-1377</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-11542</v>
+      </c>
+      <c r="I16" s="9">
+        <v>827</v>
+      </c>
+      <c r="J16" s="9">
         <v>658</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>2109</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-13886</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-1275</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>8433</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>-793</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -989,32 +1167,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>228385</v>
+      </c>
+      <c r="F18" s="15">
+        <v>202901</v>
+      </c>
+      <c r="G18" s="15">
+        <v>178435</v>
+      </c>
+      <c r="H18" s="15">
+        <v>135385</v>
+      </c>
+      <c r="I18" s="15">
+        <v>241135</v>
+      </c>
+      <c r="J18" s="15">
         <v>343648</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>469643</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>473414</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>644142</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>694404</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1022,65 +1230,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4107</v>
+      </c>
+      <c r="H19" s="11">
+        <v>15334</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>6470</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>65597</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>78470</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>72849</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-8139</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-4107</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-15334</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-18961</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-303</v>
+      </c>
+      <c r="J20" s="9">
         <v>-6470</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-65597</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-78470</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-72849</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-130573</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>220246</v>
+      </c>
+      <c r="F21" s="13">
+        <v>198794</v>
+      </c>
+      <c r="G21" s="13">
+        <v>189752</v>
+      </c>
+      <c r="H21" s="13">
+        <v>131758</v>
+      </c>
+      <c r="I21" s="13">
+        <v>240832</v>
+      </c>
+      <c r="J21" s="13">
         <v>337178</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>429780</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>460541</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>649763</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>636680</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1099,30 +1352,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>220246</v>
+      </c>
+      <c r="F23" s="13">
+        <v>198794</v>
+      </c>
+      <c r="G23" s="13">
+        <v>189752</v>
+      </c>
+      <c r="H23" s="13">
+        <v>131758</v>
+      </c>
+      <c r="I23" s="13">
+        <v>240832</v>
+      </c>
+      <c r="J23" s="13">
         <v>337178</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>429780</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>460541</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>649763</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>636680</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1131,8 +1414,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1141,8 +1429,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1151,10 +1444,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1173,8 +1471,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1183,54 +1496,89 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>766</v>
+      </c>
+      <c r="F29" s="9">
+        <v>345</v>
+      </c>
+      <c r="G29" s="9">
+        <v>569</v>
+      </c>
+      <c r="H29" s="9">
+        <v>414</v>
+      </c>
+      <c r="I29" s="9">
+        <v>442</v>
+      </c>
+      <c r="J29" s="9">
         <v>676</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>735</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>602</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>707</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>582</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
+        <v>766</v>
+      </c>
+      <c r="F30" s="13">
+        <v>345</v>
+      </c>
+      <c r="G30" s="13">
+        <v>569</v>
+      </c>
+      <c r="H30" s="13">
+        <v>414</v>
+      </c>
+      <c r="I30" s="13">
+        <v>442</v>
+      </c>
+      <c r="J30" s="13">
         <v>676</v>
       </c>
-      <c r="F30" s="13">
+      <c r="K30" s="13">
         <v>735</v>
       </c>
-      <c r="G30" s="13">
+      <c r="L30" s="13">
         <v>602</v>
       </c>
-      <c r="H30" s="13">
+      <c r="M30" s="13">
         <v>707</v>
       </c>
-      <c r="I30" s="13">
+      <c r="N30" s="13">
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1239,8 +1587,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1249,8 +1602,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1259,10 +1617,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1281,8 +1644,23 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1291,54 +1669,89 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
+        <v>521</v>
+      </c>
+      <c r="F36" s="9">
+        <v>950</v>
+      </c>
+      <c r="G36" s="9">
+        <v>393</v>
+      </c>
+      <c r="H36" s="9">
+        <v>443</v>
+      </c>
+      <c r="I36" s="9">
+        <v>774</v>
+      </c>
+      <c r="J36" s="9">
         <v>789</v>
       </c>
-      <c r="F36" s="9">
+      <c r="K36" s="9">
         <v>790</v>
       </c>
-      <c r="G36" s="9">
+      <c r="L36" s="9">
         <v>877</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>855</v>
       </c>
-      <c r="I36" s="9">
+      <c r="N36" s="9">
         <v>1105</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>521</v>
+      </c>
+      <c r="F37" s="13">
+        <v>950</v>
+      </c>
+      <c r="G37" s="13">
+        <v>393</v>
+      </c>
+      <c r="H37" s="13">
+        <v>443</v>
+      </c>
+      <c r="I37" s="13">
+        <v>774</v>
+      </c>
+      <c r="J37" s="13">
         <v>789</v>
       </c>
-      <c r="F37" s="13">
+      <c r="K37" s="13">
         <v>790</v>
       </c>
-      <c r="G37" s="13">
+      <c r="L37" s="13">
         <v>877</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>855</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>1105</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1347,8 +1760,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1357,8 +1775,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1367,10 +1790,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1389,8 +1817,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1399,54 +1842,89 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>942</v>
+      </c>
+      <c r="F43" s="9">
+        <v>726</v>
+      </c>
+      <c r="G43" s="9">
+        <v>548</v>
+      </c>
+      <c r="H43" s="9">
+        <v>415</v>
+      </c>
+      <c r="I43" s="9">
+        <v>540</v>
+      </c>
+      <c r="J43" s="9">
         <v>730</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>923</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>772</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>980</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>1008</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>942</v>
+      </c>
+      <c r="F44" s="13">
+        <v>726</v>
+      </c>
+      <c r="G44" s="13">
+        <v>548</v>
+      </c>
+      <c r="H44" s="13">
+        <v>415</v>
+      </c>
+      <c r="I44" s="13">
+        <v>540</v>
+      </c>
+      <c r="J44" s="13">
         <v>730</v>
       </c>
-      <c r="F44" s="13">
+      <c r="K44" s="13">
         <v>923</v>
       </c>
-      <c r="G44" s="13">
+      <c r="L44" s="13">
         <v>772</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>980</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>1008</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1455,8 +1933,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1465,8 +1948,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1475,10 +1963,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1497,8 +1990,23 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1507,54 +2015,89 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>345</v>
+      </c>
+      <c r="F50" s="9">
+        <v>569</v>
+      </c>
+      <c r="G50" s="9">
+        <v>414</v>
+      </c>
+      <c r="H50" s="9">
+        <v>442</v>
+      </c>
+      <c r="I50" s="9">
+        <v>676</v>
+      </c>
+      <c r="J50" s="9">
         <v>735</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>602</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>707</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>582</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>345</v>
+      </c>
+      <c r="F51" s="13">
+        <v>569</v>
+      </c>
+      <c r="G51" s="13">
+        <v>414</v>
+      </c>
+      <c r="H51" s="13">
+        <v>442</v>
+      </c>
+      <c r="I51" s="13">
+        <v>676</v>
+      </c>
+      <c r="J51" s="13">
         <v>735</v>
       </c>
-      <c r="F51" s="13">
+      <c r="K51" s="13">
         <v>602</v>
       </c>
-      <c r="G51" s="13">
+      <c r="L51" s="13">
         <v>707</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>582</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>679</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1563,8 +2106,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1573,8 +2121,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1583,10 +2136,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1605,8 +2163,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1615,54 +2188,89 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>157005</v>
+      </c>
+      <c r="F57" s="9">
+        <v>74934</v>
+      </c>
+      <c r="G57" s="9">
+        <v>114166</v>
+      </c>
+      <c r="H57" s="9">
+        <v>74853</v>
+      </c>
+      <c r="I57" s="9">
+        <v>134692</v>
+      </c>
+      <c r="J57" s="9">
         <v>242073</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>311656</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>261592</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>318105</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>288537</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>157005</v>
+      </c>
+      <c r="F58" s="13">
+        <v>74934</v>
+      </c>
+      <c r="G58" s="13">
+        <v>114166</v>
+      </c>
+      <c r="H58" s="13">
+        <v>74853</v>
+      </c>
+      <c r="I58" s="13">
+        <v>134692</v>
+      </c>
+      <c r="J58" s="13">
         <v>242073</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>311656</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>261592</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>318105</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>288537</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1671,8 +2279,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1681,8 +2294,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1691,10 +2309,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1713,8 +2336,23 @@
       <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1723,54 +2361,89 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>102261</v>
+      </c>
+      <c r="F64" s="9">
+        <v>194731</v>
+      </c>
+      <c r="G64" s="9">
+        <v>66923</v>
+      </c>
+      <c r="H64" s="9">
+        <v>152143</v>
+      </c>
+      <c r="I64" s="9">
+        <v>264428</v>
+      </c>
+      <c r="J64" s="9">
         <v>318811</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>325862</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>403911</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>460157</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>553836</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>102261</v>
+      </c>
+      <c r="F65" s="13">
+        <v>194731</v>
+      </c>
+      <c r="G65" s="13">
+        <v>66923</v>
+      </c>
+      <c r="H65" s="13">
+        <v>152143</v>
+      </c>
+      <c r="I65" s="13">
+        <v>264428</v>
+      </c>
+      <c r="J65" s="13">
         <v>318811</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>325862</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>403911</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>460157</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>553836</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1779,8 +2452,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1789,8 +2467,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1799,10 +2482,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1821,8 +2509,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1831,54 +2534,89 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>184332</v>
+      </c>
+      <c r="F71" s="9">
+        <v>155499</v>
+      </c>
+      <c r="G71" s="9">
+        <v>106236</v>
+      </c>
+      <c r="H71" s="9">
+        <v>92304</v>
+      </c>
+      <c r="I71" s="9">
+        <v>157047</v>
+      </c>
+      <c r="J71" s="9">
         <v>249228</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>375926</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>347398</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>489725</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>508272</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>184332</v>
+      </c>
+      <c r="F72" s="13">
+        <v>155499</v>
+      </c>
+      <c r="G72" s="13">
+        <v>106236</v>
+      </c>
+      <c r="H72" s="13">
+        <v>92304</v>
+      </c>
+      <c r="I72" s="13">
+        <v>157047</v>
+      </c>
+      <c r="J72" s="13">
         <v>249228</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>375926</v>
       </c>
-      <c r="G72" s="13">
+      <c r="L72" s="13">
         <v>347398</v>
       </c>
-      <c r="H72" s="13">
+      <c r="M72" s="13">
         <v>489725</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>508272</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1887,8 +2625,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1897,8 +2640,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1907,10 +2655,15 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1929,8 +2682,23 @@
       <c r="I76" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1939,54 +2707,89 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
+        <v>74934</v>
+      </c>
+      <c r="F78" s="9">
+        <v>114166</v>
+      </c>
+      <c r="G78" s="9">
+        <v>74853</v>
+      </c>
+      <c r="H78" s="9">
+        <v>134692</v>
+      </c>
+      <c r="I78" s="9">
+        <v>242073</v>
+      </c>
+      <c r="J78" s="9">
         <v>311656</v>
       </c>
-      <c r="F78" s="9">
+      <c r="K78" s="9">
         <v>261592</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>318105</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>288537</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>334101</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
+        <v>74934</v>
+      </c>
+      <c r="F79" s="13">
+        <v>114166</v>
+      </c>
+      <c r="G79" s="13">
+        <v>74853</v>
+      </c>
+      <c r="H79" s="13">
+        <v>134692</v>
+      </c>
+      <c r="I79" s="13">
+        <v>242073</v>
+      </c>
+      <c r="J79" s="13">
         <v>311656</v>
       </c>
-      <c r="F79" s="13">
+      <c r="K79" s="13">
         <v>261592</v>
       </c>
-      <c r="G79" s="13">
+      <c r="L79" s="13">
         <v>318105</v>
       </c>
-      <c r="H79" s="13">
+      <c r="M79" s="13">
         <v>288537</v>
       </c>
-      <c r="I79" s="13">
+      <c r="N79" s="13">
         <v>334101</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1995,8 +2798,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2005,8 +2813,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2015,10 +2828,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2037,8 +2855,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2047,32 +2880,52 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>204967363</v>
+      </c>
+      <c r="F85" s="9">
+        <v>217200000</v>
+      </c>
+      <c r="G85" s="9">
+        <v>200643234</v>
+      </c>
+      <c r="H85" s="9">
+        <v>180804348</v>
+      </c>
+      <c r="I85" s="9">
+        <v>304733032</v>
+      </c>
+      <c r="J85" s="9">
         <v>358096154</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>424021769</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>434538206</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>449936351</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>495768041</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2081,8 +2934,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2091,8 +2949,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2101,10 +2964,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2123,8 +2991,23 @@
       <c r="I89" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2133,32 +3016,52 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>196278311</v>
+      </c>
+      <c r="F91" s="9">
+        <v>204980000</v>
+      </c>
+      <c r="G91" s="9">
+        <v>170287532</v>
+      </c>
+      <c r="H91" s="9">
+        <v>343437923</v>
+      </c>
+      <c r="I91" s="9">
+        <v>341638243</v>
+      </c>
+      <c r="J91" s="9">
         <v>404069708</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>412483544</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>460559863</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>538195322</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>501209050</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2167,8 +3070,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2177,8 +3085,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2187,10 +3100,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2209,8 +3127,23 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2219,32 +3152,52 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>195681529</v>
+      </c>
+      <c r="F97" s="9">
+        <v>214185950</v>
+      </c>
+      <c r="G97" s="9">
+        <v>193861314</v>
+      </c>
+      <c r="H97" s="9">
+        <v>222419277</v>
+      </c>
+      <c r="I97" s="9">
+        <v>290827778</v>
+      </c>
+      <c r="J97" s="9">
         <v>341408219</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>407287107</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>449997409</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>499719388</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>504238095</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2253,8 +3206,13 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2263,8 +3221,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2273,10 +3236,15 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2295,8 +3263,23 @@
       <c r="I101" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2305,32 +3288,52 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9">
+      <c r="E103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103" s="9">
+        <v>358096154</v>
+      </c>
+      <c r="J103" s="9">
         <v>424021769</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>434538206</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>449936351</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>495768041</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>492048601</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2339,8 +3342,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2349,8 +3357,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2359,10 +3372,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2381,8 +3399,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2391,32 +3424,52 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>1095</v>
+      </c>
+      <c r="F109" s="9">
+        <v>410</v>
+      </c>
+      <c r="G109" s="9">
+        <v>440</v>
+      </c>
+      <c r="H109" s="9">
+        <v>266</v>
+      </c>
+      <c r="I109" s="9">
+        <v>623</v>
+      </c>
+      <c r="J109" s="9">
         <v>1304</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>2146</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>1794</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>1395</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>2113</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2435,10 +3488,25 @@
       <c r="I110" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2457,10 +3525,25 @@
       <c r="I111" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="9">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0</v>
+      </c>
+      <c r="N111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2479,10 +3562,25 @@
       <c r="I112" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11">
+        <v>0</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0</v>
+      </c>
+      <c r="N112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -2501,76 +3599,136 @@
       <c r="I113" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
+        <v>0</v>
+      </c>
+      <c r="M113" s="9">
+        <v>0</v>
+      </c>
+      <c r="N113" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>2347</v>
+      </c>
+      <c r="F114" s="11">
+        <v>2607</v>
+      </c>
+      <c r="G114" s="11">
+        <v>2007</v>
+      </c>
+      <c r="H114" s="11">
+        <v>1314</v>
+      </c>
+      <c r="I114" s="11">
+        <v>1821</v>
+      </c>
+      <c r="J114" s="11">
         <v>3293</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>1433</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>2395</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>10772</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>5593</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>6637</v>
+      </c>
+      <c r="F115" s="9">
+        <v>7589</v>
+      </c>
+      <c r="G115" s="9">
+        <v>8365</v>
+      </c>
+      <c r="H115" s="9">
+        <v>9505</v>
+      </c>
+      <c r="I115" s="9">
+        <v>9650</v>
+      </c>
+      <c r="J115" s="9">
         <v>12215</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>10280</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>19392</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>19499</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>19884</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>1615</v>
+      </c>
+      <c r="F116" s="11">
+        <v>1752</v>
+      </c>
+      <c r="G116" s="11">
+        <v>2141</v>
+      </c>
+      <c r="H116" s="11">
+        <v>3046</v>
+      </c>
+      <c r="I116" s="11">
+        <v>3369</v>
+      </c>
+      <c r="J116" s="11">
         <v>3970</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>4544</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>6778</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>8807</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>7553</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2589,52 +3747,97 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>20111</v>
+      </c>
+      <c r="F118" s="11">
+        <v>20509</v>
+      </c>
+      <c r="G118" s="11">
+        <v>39468</v>
+      </c>
+      <c r="H118" s="11">
+        <v>16626</v>
+      </c>
+      <c r="I118" s="11">
+        <v>33928</v>
+      </c>
+      <c r="J118" s="11">
         <v>40978</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>28578</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>48541</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>35958</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>74573</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>31805</v>
+      </c>
+      <c r="F119" s="15">
+        <v>32867</v>
+      </c>
+      <c r="G119" s="15">
+        <v>52421</v>
+      </c>
+      <c r="H119" s="15">
+        <v>30757</v>
+      </c>
+      <c r="I119" s="15">
+        <v>49391</v>
+      </c>
+      <c r="J119" s="15">
         <v>61760</v>
       </c>
-      <c r="F119" s="15">
+      <c r="K119" s="15">
         <v>46981</v>
       </c>
-      <c r="G119" s="15">
+      <c r="L119" s="15">
         <v>78900</v>
       </c>
-      <c r="H119" s="15">
+      <c r="M119" s="15">
         <v>76431</v>
       </c>
-      <c r="I119" s="15">
+      <c r="N119" s="15">
         <v>109716</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2643,8 +3846,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2653,8 +3861,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2663,10 +3876,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -2675,8 +3893,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2685,13 +3908,18 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -2699,123 +3927,128 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>

--- a/database/industries/nasaji/netrin/cost/quarterly.xlsx
+++ b/database/industries/nasaji/netrin/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4265CB4-4AD5-46DF-A7EE-34DD38428D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9EE869-D28A-48A2-9AFF-F0E6DB798B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -717,12 +717,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -737,7 +737,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -786,7 +786,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -835,7 +835,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -872,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -887,155 +887,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>184332</v>
+        <v>155499</v>
       </c>
       <c r="F10" s="9">
-        <v>155499</v>
+        <v>106236</v>
       </c>
       <c r="G10" s="9">
-        <v>106236</v>
+        <v>92304</v>
       </c>
       <c r="H10" s="9">
-        <v>92304</v>
+        <v>157047</v>
       </c>
       <c r="I10" s="9">
-        <v>157047</v>
+        <v>249228</v>
       </c>
       <c r="J10" s="9">
-        <v>249228</v>
+        <v>375926</v>
       </c>
       <c r="K10" s="9">
-        <v>375926</v>
+        <v>347398</v>
       </c>
       <c r="L10" s="9">
-        <v>347398</v>
+        <v>489725</v>
       </c>
       <c r="M10" s="9">
-        <v>489725</v>
+        <v>508272</v>
       </c>
       <c r="N10" s="9">
-        <v>508272</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>441116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>14061</v>
+        <v>14868</v>
       </c>
       <c r="F11" s="11">
-        <v>14868</v>
+        <v>21155</v>
       </c>
       <c r="G11" s="11">
-        <v>21155</v>
+        <v>23866</v>
       </c>
       <c r="H11" s="11">
-        <v>23866</v>
+        <v>33870</v>
       </c>
       <c r="I11" s="11">
-        <v>33870</v>
+        <v>32002</v>
       </c>
       <c r="J11" s="11">
-        <v>32002</v>
+        <v>44627</v>
       </c>
       <c r="K11" s="11">
-        <v>44627</v>
+        <v>61002</v>
       </c>
       <c r="L11" s="11">
-        <v>61002</v>
+        <v>79261</v>
       </c>
       <c r="M11" s="11">
-        <v>79261</v>
+        <v>67983</v>
       </c>
       <c r="N11" s="11">
-        <v>67983</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>88589</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>31805</v>
+        <v>32867</v>
       </c>
       <c r="F12" s="9">
-        <v>32867</v>
+        <v>52421</v>
       </c>
       <c r="G12" s="9">
-        <v>52421</v>
+        <v>30757</v>
       </c>
       <c r="H12" s="9">
-        <v>30757</v>
+        <v>49391</v>
       </c>
       <c r="I12" s="9">
-        <v>49391</v>
+        <v>61760</v>
       </c>
       <c r="J12" s="9">
-        <v>61760</v>
+        <v>46981</v>
       </c>
       <c r="K12" s="9">
-        <v>46981</v>
+        <v>78900</v>
       </c>
       <c r="L12" s="9">
-        <v>78900</v>
+        <v>76431</v>
       </c>
       <c r="M12" s="9">
-        <v>76431</v>
+        <v>109716</v>
       </c>
       <c r="N12" s="9">
-        <v>109716</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>95663</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>230198</v>
+        <v>203234</v>
       </c>
       <c r="F13" s="13">
-        <v>203234</v>
+        <v>179812</v>
       </c>
       <c r="G13" s="13">
-        <v>179812</v>
+        <v>146927</v>
       </c>
       <c r="H13" s="13">
-        <v>146927</v>
+        <v>240308</v>
       </c>
       <c r="I13" s="13">
-        <v>240308</v>
+        <v>342990</v>
       </c>
       <c r="J13" s="13">
-        <v>342990</v>
+        <v>467534</v>
       </c>
       <c r="K13" s="13">
-        <v>467534</v>
+        <v>487300</v>
       </c>
       <c r="L13" s="13">
-        <v>487300</v>
+        <v>645417</v>
       </c>
       <c r="M13" s="13">
-        <v>645417</v>
+        <v>685971</v>
       </c>
       <c r="N13" s="13">
-        <v>685971</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>625368</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1072,91 +1072,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>230198</v>
+        <v>203234</v>
       </c>
       <c r="F15" s="13">
-        <v>203234</v>
+        <v>179812</v>
       </c>
       <c r="G15" s="13">
-        <v>179812</v>
+        <v>146927</v>
       </c>
       <c r="H15" s="13">
-        <v>146927</v>
+        <v>240308</v>
       </c>
       <c r="I15" s="13">
-        <v>240308</v>
+        <v>342990</v>
       </c>
       <c r="J15" s="13">
-        <v>342990</v>
+        <v>467534</v>
       </c>
       <c r="K15" s="13">
-        <v>467534</v>
+        <v>487300</v>
       </c>
       <c r="L15" s="13">
-        <v>487300</v>
+        <v>645417</v>
       </c>
       <c r="M15" s="13">
-        <v>645417</v>
+        <v>685971</v>
       </c>
       <c r="N15" s="13">
-        <v>685971</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>625368</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-1020</v>
+        <v>-1126</v>
       </c>
       <c r="F16" s="9">
-        <v>-1126</v>
+        <v>-1377</v>
       </c>
       <c r="G16" s="9">
-        <v>-1377</v>
+        <v>-11542</v>
       </c>
       <c r="H16" s="9">
-        <v>-11542</v>
+        <v>827</v>
       </c>
       <c r="I16" s="9">
-        <v>827</v>
+        <v>658</v>
       </c>
       <c r="J16" s="9">
-        <v>658</v>
+        <v>2109</v>
       </c>
       <c r="K16" s="9">
-        <v>2109</v>
+        <v>-13886</v>
       </c>
       <c r="L16" s="9">
-        <v>-13886</v>
+        <v>-1275</v>
       </c>
       <c r="M16" s="9">
-        <v>-1275</v>
+        <v>8433</v>
       </c>
       <c r="N16" s="9">
-        <v>8433</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-793</v>
+        <v>793</v>
       </c>
       <c r="F17" s="11">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -1183,44 +1183,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>228385</v>
+        <v>202901</v>
       </c>
       <c r="F18" s="15">
-        <v>202901</v>
+        <v>178435</v>
       </c>
       <c r="G18" s="15">
-        <v>178435</v>
+        <v>135385</v>
       </c>
       <c r="H18" s="15">
-        <v>135385</v>
+        <v>241135</v>
       </c>
       <c r="I18" s="15">
-        <v>241135</v>
+        <v>343648</v>
       </c>
       <c r="J18" s="15">
-        <v>343648</v>
+        <v>469643</v>
       </c>
       <c r="K18" s="15">
-        <v>469643</v>
+        <v>473414</v>
       </c>
       <c r="L18" s="15">
-        <v>473414</v>
+        <v>644142</v>
       </c>
       <c r="M18" s="15">
-        <v>644142</v>
+        <v>694404</v>
       </c>
       <c r="N18" s="15">
-        <v>694404</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>626233</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1230,108 +1230,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>26651</v>
       </c>
       <c r="G19" s="11">
-        <v>4107</v>
+        <v>15334</v>
       </c>
       <c r="H19" s="11">
-        <v>15334</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>25734</v>
       </c>
       <c r="K19" s="11">
-        <v>6470</v>
+        <v>65597</v>
       </c>
       <c r="L19" s="11">
-        <v>65597</v>
+        <v>78470</v>
       </c>
       <c r="M19" s="11">
-        <v>78470</v>
+        <v>72849</v>
       </c>
       <c r="N19" s="11">
-        <v>72849</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>130573</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-8139</v>
+        <v>-4107</v>
       </c>
       <c r="F20" s="9">
-        <v>-4107</v>
+        <v>-15334</v>
       </c>
       <c r="G20" s="9">
-        <v>-15334</v>
+        <v>-18961</v>
       </c>
       <c r="H20" s="9">
-        <v>-18961</v>
+        <v>-303</v>
       </c>
       <c r="I20" s="9">
-        <v>-303</v>
+        <v>-6470</v>
       </c>
       <c r="J20" s="9">
-        <v>-6470</v>
+        <v>-65597</v>
       </c>
       <c r="K20" s="9">
-        <v>-65597</v>
+        <v>-78470</v>
       </c>
       <c r="L20" s="9">
-        <v>-78470</v>
+        <v>-72849</v>
       </c>
       <c r="M20" s="9">
-        <v>-72849</v>
+        <v>-130573</v>
       </c>
       <c r="N20" s="9">
-        <v>-130573</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-116052</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>220246</v>
+        <v>198794</v>
       </c>
       <c r="F21" s="13">
-        <v>198794</v>
+        <v>189752</v>
       </c>
       <c r="G21" s="13">
-        <v>189752</v>
+        <v>131758</v>
       </c>
       <c r="H21" s="13">
-        <v>131758</v>
+        <v>240832</v>
       </c>
       <c r="I21" s="13">
-        <v>240832</v>
+        <v>337178</v>
       </c>
       <c r="J21" s="13">
-        <v>337178</v>
+        <v>429780</v>
       </c>
       <c r="K21" s="13">
-        <v>429780</v>
+        <v>460541</v>
       </c>
       <c r="L21" s="13">
-        <v>460541</v>
+        <v>649763</v>
       </c>
       <c r="M21" s="13">
-        <v>649763</v>
+        <v>636680</v>
       </c>
       <c r="N21" s="13">
-        <v>636680</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>640754</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1368,44 +1368,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>220246</v>
+        <v>198794</v>
       </c>
       <c r="F23" s="13">
-        <v>198794</v>
+        <v>189752</v>
       </c>
       <c r="G23" s="13">
-        <v>189752</v>
+        <v>131758</v>
       </c>
       <c r="H23" s="13">
-        <v>131758</v>
+        <v>240832</v>
       </c>
       <c r="I23" s="13">
-        <v>240832</v>
+        <v>337178</v>
       </c>
       <c r="J23" s="13">
-        <v>337178</v>
+        <v>429780</v>
       </c>
       <c r="K23" s="13">
-        <v>429780</v>
+        <v>460541</v>
       </c>
       <c r="L23" s="13">
-        <v>460541</v>
+        <v>649763</v>
       </c>
       <c r="M23" s="13">
-        <v>649763</v>
+        <v>636680</v>
       </c>
       <c r="N23" s="13">
-        <v>636680</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>640754</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1420,7 +1420,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1450,7 +1450,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1502,7 +1502,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1511,74 +1511,74 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>766</v>
+        <v>345</v>
       </c>
       <c r="F29" s="9">
-        <v>345</v>
+        <v>569</v>
       </c>
       <c r="G29" s="9">
-        <v>569</v>
+        <v>414</v>
       </c>
       <c r="H29" s="9">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="I29" s="9">
-        <v>442</v>
+        <v>676</v>
       </c>
       <c r="J29" s="9">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="K29" s="9">
-        <v>735</v>
+        <v>602</v>
       </c>
       <c r="L29" s="9">
-        <v>602</v>
+        <v>707</v>
       </c>
       <c r="M29" s="9">
-        <v>707</v>
+        <v>582</v>
       </c>
       <c r="N29" s="9">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>766</v>
+        <v>345</v>
       </c>
       <c r="F30" s="13">
-        <v>345</v>
+        <v>569</v>
       </c>
       <c r="G30" s="13">
-        <v>569</v>
+        <v>414</v>
       </c>
       <c r="H30" s="13">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="I30" s="13">
-        <v>442</v>
+        <v>676</v>
       </c>
       <c r="J30" s="13">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="K30" s="13">
-        <v>735</v>
+        <v>602</v>
       </c>
       <c r="L30" s="13">
-        <v>602</v>
+        <v>707</v>
       </c>
       <c r="M30" s="13">
-        <v>707</v>
+        <v>582</v>
       </c>
       <c r="N30" s="13">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1593,7 +1593,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1608,7 +1608,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1623,7 +1623,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1675,7 +1675,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
@@ -1684,74 +1684,74 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>521</v>
+        <v>950</v>
       </c>
       <c r="F36" s="9">
-        <v>950</v>
+        <v>393</v>
       </c>
       <c r="G36" s="9">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="H36" s="9">
-        <v>443</v>
+        <v>774</v>
       </c>
       <c r="I36" s="9">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="J36" s="9">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="K36" s="9">
-        <v>790</v>
+        <v>877</v>
       </c>
       <c r="L36" s="9">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="M36" s="9">
-        <v>855</v>
+        <v>1105</v>
       </c>
       <c r="N36" s="9">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>521</v>
+        <v>950</v>
       </c>
       <c r="F37" s="13">
-        <v>950</v>
+        <v>393</v>
       </c>
       <c r="G37" s="13">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="H37" s="13">
-        <v>443</v>
+        <v>774</v>
       </c>
       <c r="I37" s="13">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="J37" s="13">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="K37" s="13">
-        <v>790</v>
+        <v>877</v>
       </c>
       <c r="L37" s="13">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="M37" s="13">
-        <v>855</v>
+        <v>1105</v>
       </c>
       <c r="N37" s="13">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1766,7 +1766,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1781,7 +1781,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1796,7 +1796,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1848,7 +1848,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1857,74 +1857,74 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>942</v>
+        <v>726</v>
       </c>
       <c r="F43" s="9">
-        <v>726</v>
+        <v>548</v>
       </c>
       <c r="G43" s="9">
-        <v>548</v>
+        <v>415</v>
       </c>
       <c r="H43" s="9">
-        <v>415</v>
+        <v>540</v>
       </c>
       <c r="I43" s="9">
-        <v>540</v>
+        <v>730</v>
       </c>
       <c r="J43" s="9">
-        <v>730</v>
+        <v>923</v>
       </c>
       <c r="K43" s="9">
-        <v>923</v>
+        <v>772</v>
       </c>
       <c r="L43" s="9">
-        <v>772</v>
+        <v>980</v>
       </c>
       <c r="M43" s="9">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="N43" s="9">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>942</v>
+        <v>726</v>
       </c>
       <c r="F44" s="13">
-        <v>726</v>
+        <v>548</v>
       </c>
       <c r="G44" s="13">
-        <v>548</v>
+        <v>415</v>
       </c>
       <c r="H44" s="13">
-        <v>415</v>
+        <v>540</v>
       </c>
       <c r="I44" s="13">
-        <v>540</v>
+        <v>730</v>
       </c>
       <c r="J44" s="13">
-        <v>730</v>
+        <v>923</v>
       </c>
       <c r="K44" s="13">
-        <v>923</v>
+        <v>772</v>
       </c>
       <c r="L44" s="13">
-        <v>772</v>
+        <v>980</v>
       </c>
       <c r="M44" s="13">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="N44" s="13">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1939,7 +1939,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1954,7 +1954,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1969,7 +1969,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>33</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2021,7 +2021,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
@@ -2030,74 +2030,74 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>345</v>
+        <v>569</v>
       </c>
       <c r="F50" s="9">
-        <v>569</v>
+        <v>414</v>
       </c>
       <c r="G50" s="9">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="H50" s="9">
-        <v>442</v>
+        <v>676</v>
       </c>
       <c r="I50" s="9">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="J50" s="9">
-        <v>735</v>
+        <v>602</v>
       </c>
       <c r="K50" s="9">
-        <v>602</v>
+        <v>707</v>
       </c>
       <c r="L50" s="9">
-        <v>707</v>
+        <v>582</v>
       </c>
       <c r="M50" s="9">
-        <v>582</v>
+        <v>679</v>
       </c>
       <c r="N50" s="9">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>345</v>
+        <v>569</v>
       </c>
       <c r="F51" s="13">
-        <v>569</v>
+        <v>414</v>
       </c>
       <c r="G51" s="13">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="H51" s="13">
-        <v>442</v>
+        <v>676</v>
       </c>
       <c r="I51" s="13">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="J51" s="13">
-        <v>735</v>
+        <v>602</v>
       </c>
       <c r="K51" s="13">
-        <v>602</v>
+        <v>707</v>
       </c>
       <c r="L51" s="13">
-        <v>707</v>
+        <v>582</v>
       </c>
       <c r="M51" s="13">
-        <v>582</v>
+        <v>679</v>
       </c>
       <c r="N51" s="13">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2112,7 +2112,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2127,7 +2127,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2142,7 +2142,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2194,7 +2194,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2203,74 +2203,74 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>157005</v>
+        <v>74934</v>
       </c>
       <c r="F57" s="9">
-        <v>74934</v>
+        <v>114166</v>
       </c>
       <c r="G57" s="9">
-        <v>114166</v>
+        <v>74853</v>
       </c>
       <c r="H57" s="9">
-        <v>74853</v>
+        <v>134692</v>
       </c>
       <c r="I57" s="9">
-        <v>134692</v>
+        <v>242073</v>
       </c>
       <c r="J57" s="9">
-        <v>242073</v>
+        <v>311656</v>
       </c>
       <c r="K57" s="9">
-        <v>311656</v>
+        <v>261592</v>
       </c>
       <c r="L57" s="9">
-        <v>261592</v>
+        <v>318105</v>
       </c>
       <c r="M57" s="9">
-        <v>318105</v>
+        <v>288537</v>
       </c>
       <c r="N57" s="9">
-        <v>288537</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>334101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>157005</v>
+        <v>74934</v>
       </c>
       <c r="F58" s="13">
-        <v>74934</v>
+        <v>114166</v>
       </c>
       <c r="G58" s="13">
-        <v>114166</v>
+        <v>74853</v>
       </c>
       <c r="H58" s="13">
-        <v>74853</v>
+        <v>134692</v>
       </c>
       <c r="I58" s="13">
-        <v>134692</v>
+        <v>242073</v>
       </c>
       <c r="J58" s="13">
-        <v>242073</v>
+        <v>311656</v>
       </c>
       <c r="K58" s="13">
-        <v>311656</v>
+        <v>261592</v>
       </c>
       <c r="L58" s="13">
-        <v>261592</v>
+        <v>318105</v>
       </c>
       <c r="M58" s="13">
-        <v>318105</v>
+        <v>288537</v>
       </c>
       <c r="N58" s="13">
-        <v>288537</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>334101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2285,7 +2285,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2300,7 +2300,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2315,7 +2315,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>36</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2367,7 +2367,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -2376,74 +2376,74 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>102261</v>
+        <v>194731</v>
       </c>
       <c r="F64" s="9">
-        <v>194731</v>
+        <v>66923</v>
       </c>
       <c r="G64" s="9">
-        <v>66923</v>
+        <v>152143</v>
       </c>
       <c r="H64" s="9">
-        <v>152143</v>
+        <v>264428</v>
       </c>
       <c r="I64" s="9">
-        <v>264428</v>
+        <v>318811</v>
       </c>
       <c r="J64" s="9">
-        <v>318811</v>
+        <v>325862</v>
       </c>
       <c r="K64" s="9">
-        <v>325862</v>
+        <v>403911</v>
       </c>
       <c r="L64" s="9">
-        <v>403911</v>
+        <v>460157</v>
       </c>
       <c r="M64" s="9">
-        <v>460157</v>
+        <v>553836</v>
       </c>
       <c r="N64" s="9">
-        <v>553836</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>338229</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>102261</v>
+        <v>194731</v>
       </c>
       <c r="F65" s="13">
-        <v>194731</v>
+        <v>66923</v>
       </c>
       <c r="G65" s="13">
-        <v>66923</v>
+        <v>152143</v>
       </c>
       <c r="H65" s="13">
-        <v>152143</v>
+        <v>264428</v>
       </c>
       <c r="I65" s="13">
-        <v>264428</v>
+        <v>318811</v>
       </c>
       <c r="J65" s="13">
-        <v>318811</v>
+        <v>325862</v>
       </c>
       <c r="K65" s="13">
-        <v>325862</v>
+        <v>403911</v>
       </c>
       <c r="L65" s="13">
-        <v>403911</v>
+        <v>460157</v>
       </c>
       <c r="M65" s="13">
-        <v>460157</v>
+        <v>553836</v>
       </c>
       <c r="N65" s="13">
-        <v>553836</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>338229</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2458,7 +2458,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2473,7 +2473,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2488,7 +2488,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>37</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2540,7 +2540,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2549,74 +2549,74 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>184332</v>
+        <v>155499</v>
       </c>
       <c r="F71" s="9">
-        <v>155499</v>
+        <v>106236</v>
       </c>
       <c r="G71" s="9">
-        <v>106236</v>
+        <v>92304</v>
       </c>
       <c r="H71" s="9">
-        <v>92304</v>
+        <v>157047</v>
       </c>
       <c r="I71" s="9">
-        <v>157047</v>
+        <v>249228</v>
       </c>
       <c r="J71" s="9">
-        <v>249228</v>
+        <v>375926</v>
       </c>
       <c r="K71" s="9">
-        <v>375926</v>
+        <v>347398</v>
       </c>
       <c r="L71" s="9">
-        <v>347398</v>
+        <v>489725</v>
       </c>
       <c r="M71" s="9">
-        <v>489725</v>
+        <v>508272</v>
       </c>
       <c r="N71" s="9">
-        <v>508272</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>441116</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>184332</v>
+        <v>155499</v>
       </c>
       <c r="F72" s="13">
-        <v>155499</v>
+        <v>106236</v>
       </c>
       <c r="G72" s="13">
-        <v>106236</v>
+        <v>92304</v>
       </c>
       <c r="H72" s="13">
-        <v>92304</v>
+        <v>157047</v>
       </c>
       <c r="I72" s="13">
-        <v>157047</v>
+        <v>249228</v>
       </c>
       <c r="J72" s="13">
-        <v>249228</v>
+        <v>375926</v>
       </c>
       <c r="K72" s="13">
-        <v>375926</v>
+        <v>347398</v>
       </c>
       <c r="L72" s="13">
-        <v>347398</v>
+        <v>489725</v>
       </c>
       <c r="M72" s="13">
-        <v>489725</v>
+        <v>508272</v>
       </c>
       <c r="N72" s="13">
-        <v>508272</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>441116</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2631,7 +2631,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2646,7 +2646,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2661,7 +2661,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>38</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2713,7 +2713,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>29</v>
       </c>
@@ -2722,74 +2722,74 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>74934</v>
+        <v>114166</v>
       </c>
       <c r="F78" s="9">
-        <v>114166</v>
+        <v>74853</v>
       </c>
       <c r="G78" s="9">
-        <v>74853</v>
+        <v>134692</v>
       </c>
       <c r="H78" s="9">
-        <v>134692</v>
+        <v>242073</v>
       </c>
       <c r="I78" s="9">
-        <v>242073</v>
+        <v>311656</v>
       </c>
       <c r="J78" s="9">
-        <v>311656</v>
+        <v>261592</v>
       </c>
       <c r="K78" s="9">
-        <v>261592</v>
+        <v>318105</v>
       </c>
       <c r="L78" s="9">
-        <v>318105</v>
+        <v>288537</v>
       </c>
       <c r="M78" s="9">
-        <v>288537</v>
+        <v>334101</v>
       </c>
       <c r="N78" s="9">
-        <v>334101</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>231214</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>74934</v>
+        <v>114166</v>
       </c>
       <c r="F79" s="13">
-        <v>114166</v>
+        <v>74853</v>
       </c>
       <c r="G79" s="13">
-        <v>74853</v>
+        <v>134692</v>
       </c>
       <c r="H79" s="13">
-        <v>134692</v>
+        <v>242073</v>
       </c>
       <c r="I79" s="13">
-        <v>242073</v>
+        <v>311656</v>
       </c>
       <c r="J79" s="13">
-        <v>311656</v>
+        <v>261592</v>
       </c>
       <c r="K79" s="13">
-        <v>261592</v>
+        <v>318105</v>
       </c>
       <c r="L79" s="13">
-        <v>318105</v>
+        <v>288537</v>
       </c>
       <c r="M79" s="13">
-        <v>288537</v>
+        <v>334101</v>
       </c>
       <c r="N79" s="13">
-        <v>334101</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>231214</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2804,7 +2804,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2819,7 +2819,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2834,7 +2834,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>39</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2886,7 +2886,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -2895,37 +2895,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>204967363</v>
+        <v>217200000</v>
       </c>
       <c r="F85" s="9">
-        <v>217200000</v>
+        <v>200643234</v>
       </c>
       <c r="G85" s="9">
-        <v>200643234</v>
+        <v>180804348</v>
       </c>
       <c r="H85" s="9">
-        <v>180804348</v>
+        <v>304733032</v>
       </c>
       <c r="I85" s="9">
-        <v>304733032</v>
+        <v>358096154</v>
       </c>
       <c r="J85" s="9">
-        <v>358096154</v>
+        <v>424021769</v>
       </c>
       <c r="K85" s="9">
-        <v>424021769</v>
+        <v>434538206</v>
       </c>
       <c r="L85" s="9">
-        <v>434538206</v>
+        <v>449936351</v>
       </c>
       <c r="M85" s="9">
-        <v>449936351</v>
+        <v>495768041</v>
       </c>
       <c r="N85" s="9">
-        <v>495768041</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>492048601</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2940,7 +2940,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2955,7 +2955,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2970,7 +2970,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>41</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3022,7 +3022,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -3031,37 +3031,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>196278311</v>
+        <v>204980000</v>
       </c>
       <c r="F91" s="9">
-        <v>204980000</v>
+        <v>170287532</v>
       </c>
       <c r="G91" s="9">
-        <v>170287532</v>
+        <v>343437923</v>
       </c>
       <c r="H91" s="9">
-        <v>343437923</v>
+        <v>341638243</v>
       </c>
       <c r="I91" s="9">
-        <v>341638243</v>
+        <v>404069708</v>
       </c>
       <c r="J91" s="9">
-        <v>404069708</v>
+        <v>412483544</v>
       </c>
       <c r="K91" s="9">
-        <v>412483544</v>
+        <v>460559863</v>
       </c>
       <c r="L91" s="9">
-        <v>460559863</v>
+        <v>538195322</v>
       </c>
       <c r="M91" s="9">
-        <v>538195322</v>
+        <v>501209050</v>
       </c>
       <c r="N91" s="9">
-        <v>501209050</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>475040730</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3076,7 +3076,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3091,7 +3091,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3106,7 +3106,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>42</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3158,7 +3158,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -3167,37 +3167,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>195681529</v>
+        <v>214185950</v>
       </c>
       <c r="F97" s="9">
-        <v>214185950</v>
+        <v>193861314</v>
       </c>
       <c r="G97" s="9">
-        <v>193861314</v>
+        <v>222419277</v>
       </c>
       <c r="H97" s="9">
-        <v>222419277</v>
+        <v>290827778</v>
       </c>
       <c r="I97" s="9">
-        <v>290827778</v>
+        <v>341408219</v>
       </c>
       <c r="J97" s="9">
-        <v>341408219</v>
+        <v>407287107</v>
       </c>
       <c r="K97" s="9">
-        <v>407287107</v>
+        <v>449997409</v>
       </c>
       <c r="L97" s="9">
-        <v>449997409</v>
+        <v>499719388</v>
       </c>
       <c r="M97" s="9">
-        <v>499719388</v>
+        <v>504238095</v>
       </c>
       <c r="N97" s="9">
-        <v>504238095</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>488500554</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3212,7 +3212,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3227,7 +3227,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3242,7 +3242,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>43</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3294,7 +3294,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
@@ -3311,29 +3311,29 @@
       <c r="G103" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>44</v>
+      <c r="H103" s="9">
+        <v>358096154</v>
       </c>
       <c r="I103" s="9">
-        <v>358096154</v>
+        <v>424021769</v>
       </c>
       <c r="J103" s="9">
-        <v>424021769</v>
+        <v>434538206</v>
       </c>
       <c r="K103" s="9">
-        <v>434538206</v>
+        <v>449936351</v>
       </c>
       <c r="L103" s="9">
-        <v>449936351</v>
+        <v>495768041</v>
       </c>
       <c r="M103" s="9">
-        <v>495768041</v>
+        <v>492048601</v>
       </c>
       <c r="N103" s="9">
-        <v>492048601</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>473799180</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3348,7 +3348,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3363,7 +3363,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3378,7 +3378,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3430,44 +3430,44 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>1095</v>
+        <v>410</v>
       </c>
       <c r="F109" s="9">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="G109" s="9">
-        <v>440</v>
+        <v>266</v>
       </c>
       <c r="H109" s="9">
-        <v>266</v>
+        <v>623</v>
       </c>
       <c r="I109" s="9">
-        <v>623</v>
+        <v>1304</v>
       </c>
       <c r="J109" s="9">
-        <v>1304</v>
+        <v>2146</v>
       </c>
       <c r="K109" s="9">
-        <v>2146</v>
+        <v>1794</v>
       </c>
       <c r="L109" s="9">
-        <v>1794</v>
+        <v>1395</v>
       </c>
       <c r="M109" s="9">
-        <v>1395</v>
+        <v>2113</v>
       </c>
       <c r="N109" s="9">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>47</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>48</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>49</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>50</v>
       </c>
@@ -3615,118 +3615,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>2347</v>
+        <v>2607</v>
       </c>
       <c r="F114" s="11">
-        <v>2607</v>
+        <v>2007</v>
       </c>
       <c r="G114" s="11">
-        <v>2007</v>
+        <v>1314</v>
       </c>
       <c r="H114" s="11">
-        <v>1314</v>
+        <v>1821</v>
       </c>
       <c r="I114" s="11">
-        <v>1821</v>
+        <v>3293</v>
       </c>
       <c r="J114" s="11">
-        <v>3293</v>
+        <v>1433</v>
       </c>
       <c r="K114" s="11">
-        <v>1433</v>
+        <v>2395</v>
       </c>
       <c r="L114" s="11">
-        <v>2395</v>
+        <v>10772</v>
       </c>
       <c r="M114" s="11">
-        <v>10772</v>
+        <v>5593</v>
       </c>
       <c r="N114" s="11">
-        <v>5593</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>6637</v>
+        <v>7589</v>
       </c>
       <c r="F115" s="9">
-        <v>7589</v>
+        <v>8365</v>
       </c>
       <c r="G115" s="9">
-        <v>8365</v>
+        <v>9505</v>
       </c>
       <c r="H115" s="9">
-        <v>9505</v>
+        <v>9650</v>
       </c>
       <c r="I115" s="9">
-        <v>9650</v>
+        <v>12215</v>
       </c>
       <c r="J115" s="9">
-        <v>12215</v>
+        <v>10280</v>
       </c>
       <c r="K115" s="9">
-        <v>10280</v>
+        <v>19392</v>
       </c>
       <c r="L115" s="9">
-        <v>19392</v>
+        <v>19499</v>
       </c>
       <c r="M115" s="9">
-        <v>19499</v>
+        <v>19884</v>
       </c>
       <c r="N115" s="9">
-        <v>19884</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24134</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>1615</v>
+        <v>1752</v>
       </c>
       <c r="F116" s="11">
-        <v>1752</v>
+        <v>2141</v>
       </c>
       <c r="G116" s="11">
-        <v>2141</v>
+        <v>3046</v>
       </c>
       <c r="H116" s="11">
-        <v>3046</v>
+        <v>3369</v>
       </c>
       <c r="I116" s="11">
-        <v>3369</v>
+        <v>3970</v>
       </c>
       <c r="J116" s="11">
-        <v>3970</v>
+        <v>4544</v>
       </c>
       <c r="K116" s="11">
-        <v>4544</v>
+        <v>6778</v>
       </c>
       <c r="L116" s="11">
-        <v>6778</v>
+        <v>8807</v>
       </c>
       <c r="M116" s="11">
-        <v>8807</v>
+        <v>7553</v>
       </c>
       <c r="N116" s="11">
-        <v>7553</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9844</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>54</v>
       </c>
@@ -3763,81 +3763,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>20111</v>
+        <v>20509</v>
       </c>
       <c r="F118" s="11">
-        <v>20509</v>
+        <v>39468</v>
       </c>
       <c r="G118" s="11">
-        <v>39468</v>
+        <v>16626</v>
       </c>
       <c r="H118" s="11">
-        <v>16626</v>
+        <v>33928</v>
       </c>
       <c r="I118" s="11">
-        <v>33928</v>
+        <v>40978</v>
       </c>
       <c r="J118" s="11">
-        <v>40978</v>
+        <v>28578</v>
       </c>
       <c r="K118" s="11">
-        <v>28578</v>
+        <v>48541</v>
       </c>
       <c r="L118" s="11">
-        <v>48541</v>
+        <v>35958</v>
       </c>
       <c r="M118" s="11">
-        <v>35958</v>
+        <v>74573</v>
       </c>
       <c r="N118" s="11">
-        <v>74573</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56150</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>31805</v>
+        <v>32867</v>
       </c>
       <c r="F119" s="15">
-        <v>32867</v>
+        <v>52421</v>
       </c>
       <c r="G119" s="15">
-        <v>52421</v>
+        <v>30757</v>
       </c>
       <c r="H119" s="15">
-        <v>30757</v>
+        <v>49391</v>
       </c>
       <c r="I119" s="15">
-        <v>49391</v>
+        <v>61760</v>
       </c>
       <c r="J119" s="15">
-        <v>61760</v>
+        <v>46981</v>
       </c>
       <c r="K119" s="15">
-        <v>46981</v>
+        <v>78900</v>
       </c>
       <c r="L119" s="15">
-        <v>78900</v>
+        <v>76431</v>
       </c>
       <c r="M119" s="15">
-        <v>76431</v>
+        <v>109716</v>
       </c>
       <c r="N119" s="15">
-        <v>109716</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>95663</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3852,7 +3852,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3867,7 +3867,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3882,7 +3882,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>56</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3914,7 +3914,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>57</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>59</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>61</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>63</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>65</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>67</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>69</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>71</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>73</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>75</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>71</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>77</v>
       </c>
